--- a/Code/Results/Cases/Case_5_69/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_69/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9344742781145499</v>
+        <v>0.4712233308538032</v>
       </c>
       <c r="C2">
-        <v>0.1155653578934448</v>
+        <v>0.1274291188180285</v>
       </c>
       <c r="D2">
-        <v>0.07309357324177768</v>
+        <v>0.04711151860692553</v>
       </c>
       <c r="E2">
-        <v>0.04952643905580345</v>
+        <v>0.1138147368155042</v>
       </c>
       <c r="F2">
-        <v>0.5344896174394336</v>
+        <v>0.9367715181862977</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.02672462365074526</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
-        <v>0.3896263349106022</v>
+        <v>0.8793434615819749</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.8498773860223423</v>
+        <v>0.28827970967086</v>
       </c>
       <c r="L2">
-        <v>0.1605986767292791</v>
+        <v>0.2091133763819855</v>
       </c>
       <c r="M2">
-        <v>0.2058912710876406</v>
+        <v>0.1483359338672088</v>
       </c>
       <c r="N2">
-        <v>0.8915245363366506</v>
+        <v>1.869705594151565</v>
       </c>
       <c r="O2">
-        <v>1.636366952258101</v>
+        <v>3.34265521436663</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8127947047239559</v>
+        <v>0.4369290482055703</v>
       </c>
       <c r="C3">
-        <v>0.1097957886023977</v>
+        <v>0.1253961860429555</v>
       </c>
       <c r="D3">
-        <v>0.06654351519897972</v>
+        <v>0.04480277232484298</v>
       </c>
       <c r="E3">
-        <v>0.04876087102869242</v>
+        <v>0.1142244436021738</v>
       </c>
       <c r="F3">
-        <v>0.5123590235576998</v>
+        <v>0.937333887060035</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
-        <v>0.3910505083646711</v>
+        <v>0.8851256903599634</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7398540560630806</v>
+        <v>0.2553132173878367</v>
       </c>
       <c r="L3">
-        <v>0.146192591791106</v>
+        <v>0.2064207288187205</v>
       </c>
       <c r="M3">
-        <v>0.180422529940909</v>
+        <v>0.1417215665227261</v>
       </c>
       <c r="N3">
-        <v>0.9317071267044315</v>
+        <v>1.88728293982467</v>
       </c>
       <c r="O3">
-        <v>1.608511690664528</v>
+        <v>3.357312927166888</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7382716673745051</v>
+        <v>0.4160029602486475</v>
       </c>
       <c r="C4">
-        <v>0.1062422496896431</v>
+        <v>0.1241315927497126</v>
       </c>
       <c r="D4">
-        <v>0.06250335988997335</v>
+        <v>0.04336901101640933</v>
       </c>
       <c r="E4">
-        <v>0.04835026860346581</v>
+        <v>0.1145169273562896</v>
       </c>
       <c r="F4">
-        <v>0.4996551412251833</v>
+        <v>0.938164707059002</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
-        <v>0.3925711252899688</v>
+        <v>0.8890516628248797</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6723399955840677</v>
+        <v>0.2350736876104662</v>
       </c>
       <c r="L4">
-        <v>0.1375085674257051</v>
+        <v>0.2048670834975184</v>
       </c>
       <c r="M4">
-        <v>0.164877424998906</v>
+        <v>0.1377204289288301</v>
       </c>
       <c r="N4">
-        <v>0.9574175930987595</v>
+        <v>1.898628565866687</v>
       </c>
       <c r="O4">
-        <v>1.594229671336265</v>
+        <v>3.367895021276667</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7079411160372615</v>
+        <v>0.407508898789871</v>
       </c>
       <c r="C5">
-        <v>0.1047909825504973</v>
+        <v>0.1236121630870528</v>
       </c>
       <c r="D5">
-        <v>0.06085206748196725</v>
+        <v>0.04278069542083784</v>
       </c>
       <c r="E5">
-        <v>0.0481974965227483</v>
+        <v>0.1146464275102677</v>
       </c>
       <c r="F5">
-        <v>0.4946909107789708</v>
+        <v>0.9386254845194912</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
-        <v>0.3933480044013677</v>
+        <v>0.8907460646974741</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6448296967785438</v>
+        <v>0.2268269068872257</v>
       </c>
       <c r="L5">
-        <v>0.1340080395982568</v>
+        <v>0.2042590956540593</v>
       </c>
       <c r="M5">
-        <v>0.1585635812616708</v>
+        <v>0.1361051756573701</v>
       </c>
       <c r="N5">
-        <v>0.9681506323868032</v>
+        <v>1.903391114857378</v>
       </c>
       <c r="O5">
-        <v>1.589091624320957</v>
+        <v>3.372605473493337</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7029067960489499</v>
+        <v>0.4061005070765873</v>
       </c>
       <c r="C6">
-        <v>0.104549797862461</v>
+        <v>0.1235256652119219</v>
       </c>
       <c r="D6">
-        <v>0.06057756823823013</v>
+        <v>0.04268276235229962</v>
       </c>
       <c r="E6">
-        <v>0.04817299633144501</v>
+        <v>0.1146685542510646</v>
       </c>
       <c r="F6">
-        <v>0.4938791756690719</v>
+        <v>0.9387093811539486</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
-        <v>0.3934863501402539</v>
+        <v>0.8910331307512855</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6402615411900285</v>
+        <v>0.2254576093129401</v>
       </c>
       <c r="L6">
-        <v>0.1334290266057678</v>
+        <v>0.2041596601100935</v>
       </c>
       <c r="M6">
-        <v>0.1575163667602517</v>
+        <v>0.1358378884570932</v>
       </c>
       <c r="N6">
-        <v>0.9699481468874277</v>
+        <v>1.904190335905503</v>
       </c>
       <c r="O6">
-        <v>1.588278866709217</v>
+        <v>3.373411697573417</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7378624762182255</v>
+        <v>0.4158882699550475</v>
       </c>
       <c r="C7">
-        <v>0.1062226907499806</v>
+        <v>0.1241246041066475</v>
       </c>
       <c r="D7">
-        <v>0.06248111015725044</v>
+        <v>0.04336109313968706</v>
       </c>
       <c r="E7">
-        <v>0.04834814986304359</v>
+        <v>0.1145186320659448</v>
       </c>
       <c r="F7">
-        <v>0.4995873431377191</v>
+        <v>0.9381704262721371</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
-        <v>0.3925809727937128</v>
+        <v>0.8890741312502612</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6719689833317801</v>
+        <v>0.2349624639869177</v>
       </c>
       <c r="L7">
-        <v>0.1374612060385729</v>
+        <v>0.2048587820861982</v>
       </c>
       <c r="M7">
-        <v>0.1647921927389291</v>
+        <v>0.1376985831718684</v>
       </c>
       <c r="N7">
-        <v>0.9575613135939401</v>
+        <v>1.898692231943696</v>
       </c>
       <c r="O7">
-        <v>1.594157651852981</v>
+        <v>3.367956935530344</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8924742385218565</v>
+        <v>0.4593718841311158</v>
       </c>
       <c r="C8">
-        <v>0.1135780400465478</v>
+        <v>0.1267315698819118</v>
       </c>
       <c r="D8">
-        <v>0.07083876167553171</v>
+        <v>0.04631883451590824</v>
       </c>
       <c r="E8">
-        <v>0.04924988454415491</v>
+        <v>0.1139475224948328</v>
       </c>
       <c r="F8">
-        <v>0.5266694693819929</v>
+        <v>0.9368647240680659</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
-        <v>0.3899800365607291</v>
+        <v>0.8812592493873446</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.8119279122542196</v>
+        <v>0.2769127208746056</v>
       </c>
       <c r="L8">
-        <v>0.1555965493892515</v>
+        <v>0.20816431389364</v>
       </c>
       <c r="M8">
-        <v>0.1970888852201327</v>
+        <v>0.1460428982162014</v>
       </c>
       <c r="N8">
-        <v>0.9051607963412547</v>
+        <v>1.875651501021012</v>
       </c>
       <c r="O8">
-        <v>1.626160022660727</v>
+        <v>3.347380988038012</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.197620201954038</v>
+        <v>0.5456579172982003</v>
       </c>
       <c r="C9">
-        <v>0.1279348166801029</v>
+        <v>0.1317134242816493</v>
       </c>
       <c r="D9">
-        <v>0.08709574688067079</v>
+        <v>0.05198979441647111</v>
       </c>
       <c r="E9">
-        <v>0.05150891769638299</v>
+        <v>0.113151422990299</v>
       </c>
       <c r="F9">
-        <v>0.5872549326753926</v>
+        <v>0.9381523226506161</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
-        <v>0.3902556564888719</v>
+        <v>0.8689119607085267</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.087104692838608</v>
+        <v>0.3591759359458138</v>
       </c>
       <c r="L9">
-        <v>0.1925505421155691</v>
+        <v>0.2154342973659595</v>
       </c>
       <c r="M9">
-        <v>0.2612770545066638</v>
+        <v>0.1628783510069347</v>
       </c>
       <c r="N9">
-        <v>0.8108855825475787</v>
+        <v>1.834854470795735</v>
       </c>
       <c r="O9">
-        <v>1.712603004805857</v>
+        <v>3.319574191233016</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.423690819088762</v>
+        <v>0.609647051279353</v>
       </c>
       <c r="C10">
-        <v>0.1384730304024515</v>
+        <v>0.1352936603266102</v>
       </c>
       <c r="D10">
-        <v>0.09897996427552869</v>
+        <v>0.05607682412168913</v>
       </c>
       <c r="E10">
-        <v>0.05349550870967512</v>
+        <v>0.1127628699071259</v>
       </c>
       <c r="F10">
-        <v>0.6370012502599067</v>
+        <v>0.9414399595124721</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
-        <v>0.3940990878345261</v>
+        <v>0.8616518914159101</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.290313709985185</v>
+        <v>0.4195967128333393</v>
       </c>
       <c r="L10">
-        <v>0.2207117670522933</v>
+        <v>0.2212528341924269</v>
       </c>
       <c r="M10">
-        <v>0.3091342836475377</v>
+        <v>0.17553034999559</v>
       </c>
       <c r="N10">
-        <v>0.747144457639823</v>
+        <v>1.807550091563169</v>
       </c>
       <c r="O10">
-        <v>1.792460139025707</v>
+        <v>3.306778344179122</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.527108181268176</v>
+        <v>0.6388818287713889</v>
       </c>
       <c r="C11">
-        <v>0.1432725986609711</v>
+        <v>0.1369049701394118</v>
       </c>
       <c r="D11">
-        <v>0.104378348441891</v>
+        <v>0.05791874631222527</v>
       </c>
       <c r="E11">
-        <v>0.05447669603936411</v>
+        <v>0.1126285159728635</v>
       </c>
       <c r="F11">
-        <v>0.6609273462511638</v>
+        <v>0.943443252882247</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
-        <v>0.396723416132744</v>
+        <v>0.8587416733103481</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.383126540440173</v>
+        <v>0.4470764329413441</v>
       </c>
       <c r="L11">
-        <v>0.2337809923155874</v>
+        <v>0.2240028821448163</v>
       </c>
       <c r="M11">
-        <v>0.3310993203666328</v>
+        <v>0.18134655543804</v>
       </c>
       <c r="N11">
-        <v>0.7194287126232453</v>
+        <v>1.795707255514238</v>
       </c>
       <c r="O11">
-        <v>1.832787401793212</v>
+        <v>3.302612367356005</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.566366673523419</v>
+        <v>0.6499698249709525</v>
       </c>
       <c r="C12">
-        <v>0.1450915525640681</v>
+        <v>0.1375126213500835</v>
       </c>
       <c r="D12">
-        <v>0.1064218621401096</v>
+        <v>0.05861372882714022</v>
       </c>
       <c r="E12">
-        <v>0.05485995067215477</v>
+        <v>0.1125837173327664</v>
       </c>
       <c r="F12">
-        <v>0.6701879077182937</v>
+        <v>0.9442747617211751</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
-        <v>0.3978506940822655</v>
+        <v>0.8576960157322446</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.418338141671427</v>
+        <v>0.4574810075855567</v>
       </c>
       <c r="L12">
-        <v>0.2387704870889849</v>
+        <v>0.225059021576044</v>
       </c>
       <c r="M12">
-        <v>0.3394485075094167</v>
+        <v>0.1835576242305024</v>
       </c>
       <c r="N12">
-        <v>0.70912506918605</v>
+        <v>1.791305769015684</v>
       </c>
       <c r="O12">
-        <v>1.8486731537661</v>
+        <v>3.301272551874206</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.557907132130083</v>
+        <v>0.6475810624870064</v>
       </c>
       <c r="C13">
-        <v>0.1446997324562744</v>
+        <v>0.1373818650590977</v>
       </c>
       <c r="D13">
-        <v>0.1059817813083939</v>
+        <v>0.05846416413149313</v>
       </c>
       <c r="E13">
-        <v>0.05477688032129358</v>
+        <v>0.1125930954894052</v>
       </c>
       <c r="F13">
-        <v>0.6681843431581811</v>
+        <v>0.9440924406370144</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
-        <v>0.3976018520440618</v>
+        <v>0.8579187101507841</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.410751586557808</v>
+        <v>0.4552402670532842</v>
       </c>
       <c r="L13">
-        <v>0.2376940560677099</v>
+        <v>0.2248309080424775</v>
       </c>
       <c r="M13">
-        <v>0.337648900861943</v>
+        <v>0.1830810507966589</v>
       </c>
       <c r="N13">
-        <v>0.7113354912460931</v>
+        <v>1.792250010035828</v>
       </c>
       <c r="O13">
-        <v>1.845223878523029</v>
+        <v>3.301550534738567</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.530335983963255</v>
+        <v>0.6397936995970781</v>
       </c>
       <c r="C14">
-        <v>0.1434222119190167</v>
+        <v>0.1369550125295547</v>
       </c>
       <c r="D14">
-        <v>0.1045464820299813</v>
+        <v>0.05797597347241634</v>
       </c>
       <c r="E14">
-        <v>0.05450798882435137</v>
+        <v>0.1126247086522483</v>
       </c>
       <c r="F14">
-        <v>0.661685122064732</v>
+        <v>0.9435102010978156</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
-        <v>0.3968134375488219</v>
+        <v>0.8586545168088335</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.386022038347733</v>
+        <v>0.4479324546759074</v>
       </c>
       <c r="L14">
-        <v>0.2341906505885731</v>
+        <v>0.2240894760948891</v>
       </c>
       <c r="M14">
-        <v>0.3317855605936941</v>
+        <v>0.1815282898692843</v>
       </c>
       <c r="N14">
-        <v>0.7185771384968082</v>
+        <v>1.795343476265058</v>
       </c>
       <c r="O14">
-        <v>1.834081777658128</v>
+        <v>3.302497376370781</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.513460858108374</v>
+        <v>0.6350259637482338</v>
       </c>
       <c r="C15">
-        <v>0.1426399040783508</v>
+        <v>0.1366932246440768</v>
       </c>
       <c r="D15">
-        <v>0.1036672355969657</v>
+        <v>0.0576766144569234</v>
       </c>
       <c r="E15">
-        <v>0.05434482586333012</v>
+        <v>0.1126448636377368</v>
       </c>
       <c r="F15">
-        <v>0.6577306684496804</v>
+        <v>0.9431630538071474</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
-        <v>0.3963481284816126</v>
+        <v>0.8591125603061158</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.370883359664532</v>
+        <v>0.443456010445658</v>
       </c>
       <c r="L15">
-        <v>0.2320500839294084</v>
+        <v>0.2236372469231611</v>
       </c>
       <c r="M15">
-        <v>0.3281983068150467</v>
+        <v>0.1805782945991652</v>
       </c>
       <c r="N15">
-        <v>0.7230380554306104</v>
+        <v>1.797249141185366</v>
       </c>
       <c r="O15">
-        <v>1.827338185186562</v>
+        <v>3.303108299505368</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.416945002544367</v>
+        <v>0.60773896402074</v>
       </c>
       <c r="C16">
-        <v>0.1381595355610088</v>
+        <v>0.1351880063811493</v>
       </c>
       <c r="D16">
-        <v>0.09862704251180787</v>
+        <v>0.05595609995132378</v>
       </c>
       <c r="E16">
-        <v>0.05343299195186546</v>
+        <v>0.1127725018489443</v>
       </c>
       <c r="F16">
-        <v>0.635464873892289</v>
+        <v>0.9413192473837739</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
-        <v>0.3939458423720694</v>
+        <v>0.8618499732044214</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.284256658229566</v>
+        <v>0.4178006819921904</v>
       </c>
       <c r="L16">
-        <v>0.2198631412577896</v>
+        <v>0.2210751812942959</v>
       </c>
       <c r="M16">
-        <v>0.3077030281243864</v>
+        <v>0.1751514579484947</v>
       </c>
       <c r="N16">
-        <v>0.7489821501828939</v>
+        <v>1.808335681976436</v>
       </c>
       <c r="O16">
-        <v>1.789908467635797</v>
+        <v>3.307083882470437</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.357892791039689</v>
+        <v>0.5910310177411873</v>
       </c>
       <c r="C17">
-        <v>0.1354128720274446</v>
+        <v>0.1342601432220079</v>
       </c>
       <c r="D17">
-        <v>0.0955333149740909</v>
+        <v>0.05489617265239843</v>
       </c>
       <c r="E17">
-        <v>0.05289384342752079</v>
+        <v>0.1128616501655042</v>
       </c>
       <c r="F17">
-        <v>0.622147135673039</v>
+        <v>0.9403180987911242</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
-        <v>0.3927016910156134</v>
+        <v>0.8636297600435832</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.231217482413257</v>
+        <v>0.4020600518597064</v>
       </c>
       <c r="L17">
-        <v>0.2124553407674199</v>
+        <v>0.2195298041017537</v>
       </c>
       <c r="M17">
-        <v>0.2951821064617519</v>
+        <v>0.1718377306756409</v>
       </c>
       <c r="N17">
-        <v>0.7652312134590503</v>
+        <v>1.815284980487438</v>
       </c>
       <c r="O17">
-        <v>1.767998364366434</v>
+        <v>3.30994647774267</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.323980933184941</v>
+        <v>0.5814329298522125</v>
       </c>
       <c r="C18">
-        <v>0.1338335569897566</v>
+        <v>0.1337248283537633</v>
       </c>
       <c r="D18">
-        <v>0.09375312558143634</v>
+        <v>0.05428490491269855</v>
       </c>
       <c r="E18">
-        <v>0.05259099672072054</v>
+        <v>0.1129169180142622</v>
       </c>
       <c r="F18">
-        <v>0.6146082548095677</v>
+        <v>0.9397900610194441</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
-        <v>0.3920680571529687</v>
+        <v>0.864690386202458</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.20074500908899</v>
+        <v>0.3930059256682341</v>
       </c>
       <c r="L18">
-        <v>0.2082186969763313</v>
+        <v>0.2186506592768893</v>
       </c>
       <c r="M18">
-        <v>0.2879984904220905</v>
+        <v>0.1699374884803504</v>
       </c>
       <c r="N18">
-        <v>0.7746972831893492</v>
+        <v>1.819336442241083</v>
       </c>
       <c r="O18">
-        <v>1.75577023089437</v>
+        <v>3.311748749092885</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.312507733046317</v>
+        <v>0.5781852431519781</v>
       </c>
       <c r="C19">
-        <v>0.1332988939725084</v>
+        <v>0.1335433001843995</v>
       </c>
       <c r="D19">
-        <v>0.09315024229061919</v>
+        <v>0.05407766179533269</v>
       </c>
       <c r="E19">
-        <v>0.05248968792868069</v>
+        <v>0.1129363169805835</v>
       </c>
       <c r="F19">
-        <v>0.612076114472373</v>
+        <v>0.939619488799778</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
-        <v>0.3918673753510973</v>
+        <v>0.865055842012147</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.190433087530465</v>
+        <v>0.3899402790775355</v>
       </c>
       <c r="L19">
-        <v>0.206788289169225</v>
+        <v>0.2183546669602947</v>
       </c>
       <c r="M19">
-        <v>0.285569244019058</v>
+        <v>0.1692950867675336</v>
       </c>
       <c r="N19">
-        <v>0.7779227245708118</v>
+        <v>1.820717542006356</v>
       </c>
       <c r="O19">
-        <v>1.75169306141791</v>
+        <v>3.31238572982781</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.364173375762959</v>
+        <v>0.5928083823632448</v>
       </c>
       <c r="C20">
-        <v>0.1357052035061912</v>
+        <v>0.1343590849512708</v>
       </c>
       <c r="D20">
-        <v>0.09586272340175839</v>
+        <v>0.05500917216304657</v>
       </c>
       <c r="E20">
-        <v>0.05295048165585925</v>
+        <v>0.1128517471452994</v>
       </c>
       <c r="F20">
-        <v>0.6235521973630114</v>
+        <v>0.9404197267827641</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
-        <v>0.3928255963570955</v>
+        <v>0.8634364759320654</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.23685996404555</v>
+        <v>0.403735727762438</v>
       </c>
       <c r="L20">
-        <v>0.2132413935476762</v>
+        <v>0.2196933072224994</v>
       </c>
       <c r="M20">
-        <v>0.2965130831684419</v>
+        <v>0.1721898909670401</v>
       </c>
       <c r="N20">
-        <v>0.7634889959050681</v>
+        <v>1.814539584571617</v>
       </c>
       <c r="O20">
-        <v>1.770291748396062</v>
+        <v>3.309625628340854</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.538431563979088</v>
+        <v>0.6420805693990133</v>
       </c>
       <c r="C21">
-        <v>0.1437974056001821</v>
+        <v>0.1370804579385805</v>
       </c>
       <c r="D21">
-        <v>0.1049680810432534</v>
+        <v>0.05811943533664987</v>
       </c>
       <c r="E21">
-        <v>0.05458664662262969</v>
+        <v>0.1126152582877946</v>
       </c>
       <c r="F21">
-        <v>0.6635885508558559</v>
+        <v>0.9436792411889314</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
-        <v>0.3970413283980676</v>
+        <v>0.8584368628588663</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.39328383236861</v>
+        <v>0.4500789785664665</v>
       </c>
       <c r="L21">
-        <v>0.2352185603775894</v>
+        <v>0.2243068527912726</v>
       </c>
       <c r="M21">
-        <v>0.3335068814782005</v>
+        <v>0.1819841411418111</v>
       </c>
       <c r="N21">
-        <v>0.7164448255524026</v>
+        <v>1.794432593770859</v>
       </c>
       <c r="O21">
-        <v>1.837337472980636</v>
+        <v>3.302212815380187</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.652889316601005</v>
+        <v>0.6743840204542266</v>
       </c>
       <c r="C22">
-        <v>0.1490949848690377</v>
+        <v>0.1388443527058456</v>
       </c>
       <c r="D22">
-        <v>0.1109148570512986</v>
+        <v>0.06013750901352211</v>
       </c>
       <c r="E22">
-        <v>0.055724455274623</v>
+        <v>0.1124961192462646</v>
       </c>
       <c r="F22">
-        <v>0.6909289976367745</v>
+        <v>0.9462344193155303</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
-        <v>0.4005785396466806</v>
+        <v>0.855497922124755</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.495903173547219</v>
+        <v>0.4803585678714342</v>
       </c>
       <c r="L22">
-        <v>0.2498194284589346</v>
+        <v>0.227408043549957</v>
       </c>
       <c r="M22">
-        <v>0.3578699034249837</v>
+        <v>0.1884353016944971</v>
       </c>
       <c r="N22">
-        <v>0.6868200120130588</v>
+        <v>1.781776115709926</v>
       </c>
       <c r="O22">
-        <v>1.884758773089942</v>
+        <v>3.298753794514056</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.591744157511641</v>
+        <v>0.6571340196217648</v>
       </c>
       <c r="C23">
-        <v>0.1462665295628796</v>
+        <v>0.1379042789737497</v>
       </c>
       <c r="D23">
-        <v>0.1077411927066194</v>
+        <v>0.05906177588695272</v>
       </c>
       <c r="E23">
-        <v>0.05511072651903781</v>
+        <v>0.1125564712965748</v>
       </c>
       <c r="F23">
-        <v>0.6762246234839751</v>
+        <v>0.9448318297855991</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
-        <v>0.3986164978508242</v>
+        <v>0.8570364405005932</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.441093714299768</v>
+        <v>0.4641987278300519</v>
       </c>
       <c r="L23">
-        <v>0.2420037990556523</v>
+        <v>0.2257450394849627</v>
       </c>
       <c r="M23">
-        <v>0.3448487063634929</v>
+        <v>0.1849876616198287</v>
       </c>
       <c r="N23">
-        <v>0.7025261096459576</v>
+        <v>1.788486769917332</v>
       </c>
       <c r="O23">
-        <v>1.859105744598452</v>
+        <v>3.300473223918459</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.361333805928638</v>
+        <v>0.5920048123027755</v>
       </c>
       <c r="C24">
-        <v>0.1355730411828233</v>
+        <v>0.1343143592315172</v>
       </c>
       <c r="D24">
-        <v>0.09571380275271224</v>
+        <v>0.05495809100489879</v>
       </c>
       <c r="E24">
-        <v>0.05292485338701347</v>
+        <v>0.1128562117923515</v>
       </c>
       <c r="F24">
-        <v>0.6229166035140778</v>
+        <v>0.940373632689564</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
-        <v>0.3927693250104518</v>
+        <v>0.8635237431673488</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.234308935275465</v>
+        <v>0.4029781690632888</v>
       </c>
       <c r="L24">
-        <v>0.2128859501856368</v>
+        <v>0.2196193584468915</v>
       </c>
       <c r="M24">
-        <v>0.2959113026756768</v>
+        <v>0.1720306641391218</v>
       </c>
       <c r="N24">
-        <v>0.7642762659664983</v>
+        <v>1.814876402951297</v>
       </c>
       <c r="O24">
-        <v>1.769253765336288</v>
+        <v>3.309770196767005</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.114792386781659</v>
+        <v>0.5222090826934789</v>
       </c>
       <c r="C25">
-        <v>0.1240550279535313</v>
+        <v>0.1303797058556171</v>
       </c>
       <c r="D25">
-        <v>0.0827098791554306</v>
+        <v>0.05046954739000853</v>
       </c>
       <c r="E25">
-        <v>0.05084247556834143</v>
+        <v>0.1133322312601273</v>
       </c>
       <c r="F25">
-        <v>0.5699969430379141</v>
+        <v>0.9373924672954175</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
-        <v>0.3895692335353935</v>
+        <v>0.8719338412971531</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.01252561043313</v>
+        <v>0.3369234643372749</v>
       </c>
       <c r="L25">
-        <v>0.1823883060808811</v>
+        <v>0.2133835404096729</v>
       </c>
       <c r="M25">
-        <v>0.2438032938121566</v>
+        <v>0.1582738623623996</v>
       </c>
       <c r="N25">
-        <v>0.8354463547940632</v>
+        <v>1.845422094532117</v>
       </c>
       <c r="O25">
-        <v>1.686491673341379</v>
+        <v>3.325755187718244</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_69/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_69/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4712233308538032</v>
+        <v>0.9344742781144362</v>
       </c>
       <c r="C2">
-        <v>0.1274291188180285</v>
+        <v>0.1155653578935798</v>
       </c>
       <c r="D2">
-        <v>0.04711151860692553</v>
+        <v>0.0730935732418132</v>
       </c>
       <c r="E2">
-        <v>0.1138147368155042</v>
+        <v>0.0495264390557999</v>
       </c>
       <c r="F2">
-        <v>0.9367715181862977</v>
+        <v>0.5344896174394194</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365074526</v>
       </c>
       <c r="I2">
-        <v>0.8793434615819749</v>
+        <v>0.3896263349106022</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.28827970967086</v>
+        <v>0.8498773860222855</v>
       </c>
       <c r="L2">
-        <v>0.2091133763819855</v>
+        <v>0.1605986767293359</v>
       </c>
       <c r="M2">
-        <v>0.1483359338672088</v>
+        <v>0.2058912710876335</v>
       </c>
       <c r="N2">
-        <v>1.869705594151565</v>
+        <v>0.8915245363366466</v>
       </c>
       <c r="O2">
-        <v>3.34265521436663</v>
+        <v>1.636366952258044</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4369290482055703</v>
+        <v>0.8127947047239275</v>
       </c>
       <c r="C3">
-        <v>0.1253961860429555</v>
+        <v>0.1097957886018506</v>
       </c>
       <c r="D3">
-        <v>0.04480277232484298</v>
+        <v>0.06654351519902946</v>
       </c>
       <c r="E3">
-        <v>0.1142244436021738</v>
+        <v>0.04876087102867821</v>
       </c>
       <c r="F3">
-        <v>0.937333887060035</v>
+        <v>0.5123590235576998</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
-        <v>0.8851256903599634</v>
+        <v>0.3910505083646534</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2553132173878367</v>
+        <v>0.7398540560632085</v>
       </c>
       <c r="L3">
-        <v>0.2064207288187205</v>
+        <v>0.146192591791042</v>
       </c>
       <c r="M3">
-        <v>0.1417215665227261</v>
+        <v>0.180422529940909</v>
       </c>
       <c r="N3">
-        <v>1.88728293982467</v>
+        <v>0.9317071267044905</v>
       </c>
       <c r="O3">
-        <v>3.357312927166888</v>
+        <v>1.608511690664542</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4160029602486475</v>
+        <v>0.7382716673743346</v>
       </c>
       <c r="C4">
-        <v>0.1241315927497126</v>
+        <v>0.1062422496891529</v>
       </c>
       <c r="D4">
-        <v>0.04336901101640933</v>
+        <v>0.06250335989001599</v>
       </c>
       <c r="E4">
-        <v>0.1145169273562896</v>
+        <v>0.04835026860347824</v>
       </c>
       <c r="F4">
-        <v>0.938164707059002</v>
+        <v>0.4996551412252046</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
-        <v>0.8890516628248797</v>
+        <v>0.3925711252900044</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2350736876104662</v>
+        <v>0.6723399955840677</v>
       </c>
       <c r="L4">
-        <v>0.2048670834975184</v>
+        <v>0.1375085674256908</v>
       </c>
       <c r="M4">
-        <v>0.1377204289288301</v>
+        <v>0.1648774249989096</v>
       </c>
       <c r="N4">
-        <v>1.898628565866687</v>
+        <v>0.9574175930988436</v>
       </c>
       <c r="O4">
-        <v>3.367895021276667</v>
+        <v>1.594229671336308</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.407508898789871</v>
+        <v>0.7079411160372899</v>
       </c>
       <c r="C5">
-        <v>0.1236121630870528</v>
+        <v>0.1047909825504263</v>
       </c>
       <c r="D5">
-        <v>0.04278069542083784</v>
+        <v>0.06085206748223015</v>
       </c>
       <c r="E5">
-        <v>0.1146464275102677</v>
+        <v>0.04819749652275007</v>
       </c>
       <c r="F5">
-        <v>0.9386254845194912</v>
+        <v>0.4946909107789779</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
-        <v>0.8907460646974741</v>
+        <v>0.3933480044013713</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2268269068872257</v>
+        <v>0.6448296967786575</v>
       </c>
       <c r="L5">
-        <v>0.2042590956540593</v>
+        <v>0.1340080395982994</v>
       </c>
       <c r="M5">
-        <v>0.1361051756573701</v>
+        <v>0.1585635812616744</v>
       </c>
       <c r="N5">
-        <v>1.903391114857378</v>
+        <v>0.9681506323868179</v>
       </c>
       <c r="O5">
-        <v>3.372605473493337</v>
+        <v>1.589091624320972</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4061005070765873</v>
+        <v>0.7029067960488362</v>
       </c>
       <c r="C6">
-        <v>0.1235256652119219</v>
+        <v>0.1045497978621412</v>
       </c>
       <c r="D6">
-        <v>0.04268276235229962</v>
+        <v>0.06057756823810934</v>
       </c>
       <c r="E6">
-        <v>0.1146685542510646</v>
+        <v>0.04817299633142724</v>
       </c>
       <c r="F6">
-        <v>0.9387093811539486</v>
+        <v>0.4938791756690719</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
-        <v>0.8910331307512855</v>
+        <v>0.3934863501402717</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2254576093129401</v>
+        <v>0.6402615411899859</v>
       </c>
       <c r="L6">
-        <v>0.2041596601100935</v>
+        <v>0.1334290266057607</v>
       </c>
       <c r="M6">
-        <v>0.1358378884570932</v>
+        <v>0.1575163667602375</v>
       </c>
       <c r="N6">
-        <v>1.904190335905503</v>
+        <v>0.9699481468873723</v>
       </c>
       <c r="O6">
-        <v>3.373411697573417</v>
+        <v>1.588278866709189</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4158882699550475</v>
+        <v>0.737862476218254</v>
       </c>
       <c r="C7">
-        <v>0.1241246041066475</v>
+        <v>0.1062226907499877</v>
       </c>
       <c r="D7">
-        <v>0.04336109313968706</v>
+        <v>0.06248111015725755</v>
       </c>
       <c r="E7">
-        <v>0.1145186320659448</v>
+        <v>0.04834814986301694</v>
       </c>
       <c r="F7">
-        <v>0.9381704262721371</v>
+        <v>0.4995873431377191</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
-        <v>0.8890741312502612</v>
+        <v>0.3925809727937306</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2349624639869177</v>
+        <v>0.6719689833317517</v>
       </c>
       <c r="L7">
-        <v>0.2048587820861982</v>
+        <v>0.13746120603858</v>
       </c>
       <c r="M7">
-        <v>0.1376985831718684</v>
+        <v>0.1647921927389113</v>
       </c>
       <c r="N7">
-        <v>1.898692231943696</v>
+        <v>0.9575613135938863</v>
       </c>
       <c r="O7">
-        <v>3.367956935530344</v>
+        <v>1.594157651852996</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4593718841311158</v>
+        <v>0.8924742385217144</v>
       </c>
       <c r="C8">
-        <v>0.1267315698819118</v>
+        <v>0.1135780400467752</v>
       </c>
       <c r="D8">
-        <v>0.04631883451590824</v>
+        <v>0.07083876167583014</v>
       </c>
       <c r="E8">
-        <v>0.1139475224948328</v>
+        <v>0.04924988454414425</v>
       </c>
       <c r="F8">
-        <v>0.9368647240680659</v>
+        <v>0.5266694693819716</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
-        <v>0.8812592493873446</v>
+        <v>0.389980036560722</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2769127208746056</v>
+        <v>0.8119279122541627</v>
       </c>
       <c r="L8">
-        <v>0.20816431389364</v>
+        <v>0.1555965493892373</v>
       </c>
       <c r="M8">
-        <v>0.1460428982162014</v>
+        <v>0.197088885220122</v>
       </c>
       <c r="N8">
-        <v>1.875651501021012</v>
+        <v>0.9051607963411713</v>
       </c>
       <c r="O8">
-        <v>3.347380988038012</v>
+        <v>1.626160022660613</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5456579172982003</v>
+        <v>1.197620201954152</v>
       </c>
       <c r="C9">
-        <v>0.1317134242816493</v>
+        <v>0.12793481668011</v>
       </c>
       <c r="D9">
-        <v>0.05198979441647111</v>
+        <v>0.08709574688067079</v>
       </c>
       <c r="E9">
-        <v>0.113151422990299</v>
+        <v>0.05150891769636523</v>
       </c>
       <c r="F9">
-        <v>0.9381523226506161</v>
+        <v>0.5872549326753784</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
-        <v>0.8689119607085267</v>
+        <v>0.3902556564888826</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3591759359458138</v>
+        <v>1.087104692838437</v>
       </c>
       <c r="L9">
-        <v>0.2154342973659595</v>
+        <v>0.1925505421156259</v>
       </c>
       <c r="M9">
-        <v>0.1628783510069347</v>
+        <v>0.2612770545066674</v>
       </c>
       <c r="N9">
-        <v>1.834854470795735</v>
+        <v>0.8108855825476261</v>
       </c>
       <c r="O9">
-        <v>3.319574191233016</v>
+        <v>1.7126030048058</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.609647051279353</v>
+        <v>1.423690819088648</v>
       </c>
       <c r="C10">
-        <v>0.1352936603266102</v>
+        <v>0.1384730304019826</v>
       </c>
       <c r="D10">
-        <v>0.05607682412168913</v>
+        <v>0.09897996427557842</v>
       </c>
       <c r="E10">
-        <v>0.1127628699071259</v>
+        <v>0.05349550870967512</v>
       </c>
       <c r="F10">
-        <v>0.9414399595124721</v>
+        <v>0.6370012502599067</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
-        <v>0.8616518914159101</v>
+        <v>0.3940990878345261</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.4195967128333393</v>
+        <v>1.290313709985242</v>
       </c>
       <c r="L10">
-        <v>0.2212528341924269</v>
+        <v>0.2207117670522649</v>
       </c>
       <c r="M10">
-        <v>0.17553034999559</v>
+        <v>0.3091342836475519</v>
       </c>
       <c r="N10">
-        <v>1.807550091563169</v>
+        <v>0.7471444576398182</v>
       </c>
       <c r="O10">
-        <v>3.306778344179122</v>
+        <v>1.792460139025678</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6388818287713889</v>
+        <v>1.527108181268119</v>
       </c>
       <c r="C11">
-        <v>0.1369049701394118</v>
+        <v>0.1432725986608148</v>
       </c>
       <c r="D11">
-        <v>0.05791874631222527</v>
+        <v>0.1043783484419336</v>
       </c>
       <c r="E11">
-        <v>0.1126285159728635</v>
+        <v>0.05447669603934102</v>
       </c>
       <c r="F11">
-        <v>0.943443252882247</v>
+        <v>0.6609273462511567</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
-        <v>0.8587416733103481</v>
+        <v>0.396723416132744</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4470764329413441</v>
+        <v>1.383126540440088</v>
       </c>
       <c r="L11">
-        <v>0.2240028821448163</v>
+        <v>0.2337809923155447</v>
       </c>
       <c r="M11">
-        <v>0.18134655543804</v>
+        <v>0.331099320366647</v>
       </c>
       <c r="N11">
-        <v>1.795707255514238</v>
+        <v>0.719428712623233</v>
       </c>
       <c r="O11">
-        <v>3.302612367356005</v>
+        <v>1.832787401793126</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6499698249709525</v>
+        <v>1.566366673523589</v>
       </c>
       <c r="C12">
-        <v>0.1375126213500835</v>
+        <v>0.1450915525640681</v>
       </c>
       <c r="D12">
-        <v>0.05861372882714022</v>
+        <v>0.106421862140067</v>
       </c>
       <c r="E12">
-        <v>0.1125837173327664</v>
+        <v>0.05485995067215832</v>
       </c>
       <c r="F12">
-        <v>0.9442747617211751</v>
+        <v>0.6701879077183079</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
-        <v>0.8576960157322446</v>
+        <v>0.3978506940822655</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.4574810075855567</v>
+        <v>1.418338141671398</v>
       </c>
       <c r="L12">
-        <v>0.225059021576044</v>
+        <v>0.2387704870889991</v>
       </c>
       <c r="M12">
-        <v>0.1835576242305024</v>
+        <v>0.3394485075094167</v>
       </c>
       <c r="N12">
-        <v>1.791305769015684</v>
+        <v>0.7091250691860055</v>
       </c>
       <c r="O12">
-        <v>3.301272551874206</v>
+        <v>1.848673153766072</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.6475810624870064</v>
+        <v>1.557907132129998</v>
       </c>
       <c r="C13">
-        <v>0.1373818650590977</v>
+        <v>0.1446997324564876</v>
       </c>
       <c r="D13">
-        <v>0.05846416413149313</v>
+        <v>0.1059817813082091</v>
       </c>
       <c r="E13">
-        <v>0.1125930954894052</v>
+        <v>0.05477688032127404</v>
       </c>
       <c r="F13">
-        <v>0.9440924406370144</v>
+        <v>0.668184343158174</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
-        <v>0.8579187101507841</v>
+        <v>0.3976018520440832</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.4552402670532842</v>
+        <v>1.410751586557808</v>
       </c>
       <c r="L13">
-        <v>0.2248309080424775</v>
+        <v>0.2376940560677383</v>
       </c>
       <c r="M13">
-        <v>0.1830810507966589</v>
+        <v>0.3376489008619217</v>
       </c>
       <c r="N13">
-        <v>1.792250010035828</v>
+        <v>0.7113354912460903</v>
       </c>
       <c r="O13">
-        <v>3.301550534738567</v>
+        <v>1.845223878523086</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6397936995970781</v>
+        <v>1.530335983963198</v>
       </c>
       <c r="C14">
-        <v>0.1369550125295547</v>
+        <v>0.1434222119189883</v>
       </c>
       <c r="D14">
-        <v>0.05797597347241634</v>
+        <v>0.104546482030031</v>
       </c>
       <c r="E14">
-        <v>0.1126247086522483</v>
+        <v>0.05450798882436381</v>
       </c>
       <c r="F14">
-        <v>0.9435102010978156</v>
+        <v>0.661685122064732</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
-        <v>0.8586545168088335</v>
+        <v>0.3968134375488148</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.4479324546759074</v>
+        <v>1.386022038347704</v>
       </c>
       <c r="L14">
-        <v>0.2240894760948891</v>
+        <v>0.2341906505886158</v>
       </c>
       <c r="M14">
-        <v>0.1815282898692843</v>
+        <v>0.3317855605936941</v>
       </c>
       <c r="N14">
-        <v>1.795343476265058</v>
+        <v>0.7185771384967981</v>
       </c>
       <c r="O14">
-        <v>3.302497376370781</v>
+        <v>1.834081777658128</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6350259637482338</v>
+        <v>1.51346085810826</v>
       </c>
       <c r="C15">
-        <v>0.1366932246440768</v>
+        <v>0.1426399040778819</v>
       </c>
       <c r="D15">
-        <v>0.0576766144569234</v>
+        <v>0.1036672355970225</v>
       </c>
       <c r="E15">
-        <v>0.1126448636377368</v>
+        <v>0.05434482586331413</v>
       </c>
       <c r="F15">
-        <v>0.9431630538071474</v>
+        <v>0.6577306684496804</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
-        <v>0.8591125603061158</v>
+        <v>0.3963481284816126</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.443456010445658</v>
+        <v>1.370883359664532</v>
       </c>
       <c r="L15">
-        <v>0.2236372469231611</v>
+        <v>0.2320500839294652</v>
       </c>
       <c r="M15">
-        <v>0.1805782945991652</v>
+        <v>0.3281983068150467</v>
       </c>
       <c r="N15">
-        <v>1.797249141185366</v>
+        <v>0.7230380554306048</v>
       </c>
       <c r="O15">
-        <v>3.303108299505368</v>
+        <v>1.827338185186562</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.60773896402074</v>
+        <v>1.416945002544423</v>
       </c>
       <c r="C16">
-        <v>0.1351880063811493</v>
+        <v>0.1381595355610017</v>
       </c>
       <c r="D16">
-        <v>0.05595609995132378</v>
+        <v>0.0986270425119713</v>
       </c>
       <c r="E16">
-        <v>0.1127725018489443</v>
+        <v>0.05343299195186368</v>
       </c>
       <c r="F16">
-        <v>0.9413192473837739</v>
+        <v>0.6354648738922606</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
-        <v>0.8618499732044214</v>
+        <v>0.3939458423720694</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.4178006819921904</v>
+        <v>1.284256658229538</v>
       </c>
       <c r="L16">
-        <v>0.2210751812942959</v>
+        <v>0.2198631412578322</v>
       </c>
       <c r="M16">
-        <v>0.1751514579484947</v>
+        <v>0.3077030281243864</v>
       </c>
       <c r="N16">
-        <v>1.808335681976436</v>
+        <v>0.7489821501828711</v>
       </c>
       <c r="O16">
-        <v>3.307083882470437</v>
+        <v>1.789908467635797</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5910310177411873</v>
+        <v>1.357892791039689</v>
       </c>
       <c r="C17">
-        <v>0.1342601432220079</v>
+        <v>0.1354128720273451</v>
       </c>
       <c r="D17">
-        <v>0.05489617265239843</v>
+        <v>0.09553331497413353</v>
       </c>
       <c r="E17">
-        <v>0.1128616501655042</v>
+        <v>0.05289384342751724</v>
       </c>
       <c r="F17">
-        <v>0.9403180987911242</v>
+        <v>0.622147135673039</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
-        <v>0.8636297600435832</v>
+        <v>0.3927016910156063</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.4020600518597064</v>
+        <v>1.2312174824132</v>
       </c>
       <c r="L17">
-        <v>0.2195298041017537</v>
+        <v>0.2124553407675194</v>
       </c>
       <c r="M17">
-        <v>0.1718377306756409</v>
+        <v>0.2951821064617448</v>
       </c>
       <c r="N17">
-        <v>1.815284980487438</v>
+        <v>0.7652312134590002</v>
       </c>
       <c r="O17">
-        <v>3.30994647774267</v>
+        <v>1.767998364366463</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5814329298522125</v>
+        <v>1.323980933185027</v>
       </c>
       <c r="C18">
-        <v>0.1337248283537633</v>
+        <v>0.1338335569898916</v>
       </c>
       <c r="D18">
-        <v>0.05428490491269855</v>
+        <v>0.09375312558142923</v>
       </c>
       <c r="E18">
-        <v>0.1129169180142622</v>
+        <v>0.05259099672070455</v>
       </c>
       <c r="F18">
-        <v>0.9397900610194441</v>
+        <v>0.6146082548095748</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
-        <v>0.864690386202458</v>
+        <v>0.3920680571529545</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.3930059256682341</v>
+        <v>1.200745009088962</v>
       </c>
       <c r="L18">
-        <v>0.2186506592768893</v>
+        <v>0.2082186969763598</v>
       </c>
       <c r="M18">
-        <v>0.1699374884803504</v>
+        <v>0.2879984904220976</v>
       </c>
       <c r="N18">
-        <v>1.819336442241083</v>
+        <v>0.7746972831893565</v>
       </c>
       <c r="O18">
-        <v>3.311748749092885</v>
+        <v>1.755770230894427</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5781852431519781</v>
+        <v>1.312507733046289</v>
       </c>
       <c r="C19">
-        <v>0.1335433001843995</v>
+        <v>0.1332988939723663</v>
       </c>
       <c r="D19">
-        <v>0.05407766179533269</v>
+        <v>0.09315024229056235</v>
       </c>
       <c r="E19">
-        <v>0.1129363169805835</v>
+        <v>0.05248968792867892</v>
       </c>
       <c r="F19">
-        <v>0.939619488799778</v>
+        <v>0.6120761144723659</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
-        <v>0.865055842012147</v>
+        <v>0.3918673753510866</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.3899402790775355</v>
+        <v>1.19043308753038</v>
       </c>
       <c r="L19">
-        <v>0.2183546669602947</v>
+        <v>0.2067882891692818</v>
       </c>
       <c r="M19">
-        <v>0.1692950867675336</v>
+        <v>0.2855692440190722</v>
       </c>
       <c r="N19">
-        <v>1.820717542006356</v>
+        <v>0.7779227245708007</v>
       </c>
       <c r="O19">
-        <v>3.31238572982781</v>
+        <v>1.751693061417853</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5928083823632448</v>
+        <v>1.364173375762817</v>
       </c>
       <c r="C20">
-        <v>0.1343590849512708</v>
+        <v>0.1357052035058643</v>
       </c>
       <c r="D20">
-        <v>0.05500917216304657</v>
+        <v>0.09586272340175128</v>
       </c>
       <c r="E20">
-        <v>0.1128517471452994</v>
+        <v>0.05295048165584504</v>
       </c>
       <c r="F20">
-        <v>0.9404197267827641</v>
+        <v>0.6235521973630043</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
-        <v>0.8634364759320654</v>
+        <v>0.3928255963571061</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.403735727762438</v>
+        <v>1.236859964045578</v>
       </c>
       <c r="L20">
-        <v>0.2196933072224994</v>
+        <v>0.2132413935478326</v>
       </c>
       <c r="M20">
-        <v>0.1721898909670401</v>
+        <v>0.2965130831684633</v>
       </c>
       <c r="N20">
-        <v>1.814539584571617</v>
+        <v>0.7634889959051199</v>
       </c>
       <c r="O20">
-        <v>3.309625628340854</v>
+        <v>1.770291748396119</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6420805693990133</v>
+        <v>1.53843156397906</v>
       </c>
       <c r="C21">
-        <v>0.1370804579385805</v>
+        <v>0.14379740560004</v>
       </c>
       <c r="D21">
-        <v>0.05811943533664987</v>
+        <v>0.1049680810430189</v>
       </c>
       <c r="E21">
-        <v>0.1126152582877946</v>
+        <v>0.05458664662261548</v>
       </c>
       <c r="F21">
-        <v>0.9436792411889314</v>
+        <v>0.6635885508558559</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
-        <v>0.8584368628588663</v>
+        <v>0.3970413283980747</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4500789785664665</v>
+        <v>1.393283832368581</v>
       </c>
       <c r="L21">
-        <v>0.2243068527912726</v>
+        <v>0.2352185603775183</v>
       </c>
       <c r="M21">
-        <v>0.1819841411418111</v>
+        <v>0.3335068814781934</v>
       </c>
       <c r="N21">
-        <v>1.794432593770859</v>
+        <v>0.7164448255524432</v>
       </c>
       <c r="O21">
-        <v>3.302212815380187</v>
+        <v>1.837337472980693</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6743840204542266</v>
+        <v>1.652889316601062</v>
       </c>
       <c r="C22">
-        <v>0.1388443527058456</v>
+        <v>0.1490949848690377</v>
       </c>
       <c r="D22">
-        <v>0.06013750901352211</v>
+        <v>0.1109148570514122</v>
       </c>
       <c r="E22">
-        <v>0.1124961192462646</v>
+        <v>0.05572445527462477</v>
       </c>
       <c r="F22">
-        <v>0.9462344193155303</v>
+        <v>0.6909289976367745</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
-        <v>0.855497922124755</v>
+        <v>0.4005785396466806</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.4803585678714342</v>
+        <v>1.495903173547305</v>
       </c>
       <c r="L22">
-        <v>0.227408043549957</v>
+        <v>0.249819428458963</v>
       </c>
       <c r="M22">
-        <v>0.1884353016944971</v>
+        <v>0.3578699034249766</v>
       </c>
       <c r="N22">
-        <v>1.781776115709926</v>
+        <v>0.6868200120130515</v>
       </c>
       <c r="O22">
-        <v>3.298753794514056</v>
+        <v>1.884758773090056</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.6571340196217648</v>
+        <v>1.591744157511755</v>
       </c>
       <c r="C23">
-        <v>0.1379042789737497</v>
+        <v>0.1462665295623253</v>
       </c>
       <c r="D23">
-        <v>0.05906177588695272</v>
+        <v>0.1077411927066194</v>
       </c>
       <c r="E23">
-        <v>0.1125564712965748</v>
+        <v>0.0551107265190236</v>
       </c>
       <c r="F23">
-        <v>0.9448318297855991</v>
+        <v>0.6762246234839751</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
-        <v>0.8570364405005932</v>
+        <v>0.39861649785081</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.4641987278300519</v>
+        <v>1.441093714299797</v>
       </c>
       <c r="L23">
-        <v>0.2257450394849627</v>
+        <v>0.2420037990557233</v>
       </c>
       <c r="M23">
-        <v>0.1849876616198287</v>
+        <v>0.3448487063634929</v>
       </c>
       <c r="N23">
-        <v>1.788486769917332</v>
+        <v>0.7025261096460307</v>
       </c>
       <c r="O23">
-        <v>3.300473223918459</v>
+        <v>1.859105744598509</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5920048123027755</v>
+        <v>1.361333805928638</v>
       </c>
       <c r="C24">
-        <v>0.1343143592315172</v>
+        <v>0.1355730411828304</v>
       </c>
       <c r="D24">
-        <v>0.05495809100489879</v>
+        <v>0.09571380275276198</v>
       </c>
       <c r="E24">
-        <v>0.1128562117923515</v>
+        <v>0.05292485338702413</v>
       </c>
       <c r="F24">
-        <v>0.940373632689564</v>
+        <v>0.6229166035140707</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
-        <v>0.8635237431673488</v>
+        <v>0.3927693250104696</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.4029781690632888</v>
+        <v>1.234308935275379</v>
       </c>
       <c r="L24">
-        <v>0.2196193584468915</v>
+        <v>0.2128859501857079</v>
       </c>
       <c r="M24">
-        <v>0.1720306641391218</v>
+        <v>0.2959113026756626</v>
       </c>
       <c r="N24">
-        <v>1.814876402951297</v>
+        <v>0.7642762659665456</v>
       </c>
       <c r="O24">
-        <v>3.309770196767005</v>
+        <v>1.769253765336344</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5222090826934789</v>
+        <v>1.114792386781772</v>
       </c>
       <c r="C25">
-        <v>0.1303797058556171</v>
+        <v>0.1240550279537516</v>
       </c>
       <c r="D25">
-        <v>0.05046954739000853</v>
+        <v>0.08270987915547323</v>
       </c>
       <c r="E25">
-        <v>0.1133322312601273</v>
+        <v>0.05084247556835209</v>
       </c>
       <c r="F25">
-        <v>0.9373924672954175</v>
+        <v>0.569996943037907</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
-        <v>0.8719338412971531</v>
+        <v>0.3895692335353864</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3369234643372749</v>
+        <v>1.01252561043313</v>
       </c>
       <c r="L25">
-        <v>0.2133835404096729</v>
+        <v>0.1823883060808242</v>
       </c>
       <c r="M25">
-        <v>0.1582738623623996</v>
+        <v>0.2438032938121637</v>
       </c>
       <c r="N25">
-        <v>1.845422094532117</v>
+        <v>0.8354463547940371</v>
       </c>
       <c r="O25">
-        <v>3.325755187718244</v>
+        <v>1.686491673341351</v>
       </c>
     </row>
   </sheetData>
